--- a/Actividad3.2/Tabla_alfabeto_automata.xlsx
+++ b/Actividad3.2/Tabla_alfabeto_automata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Trabajos\Semestre 4 carrera\Implementacion MC\Implementacion_MC\Actividad3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{309E5E13-7974-4336-8319-6D0B69AB6B59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E7B40-17BE-4B65-AAD3-6800D810DEB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="480" windowWidth="13065" windowHeight="15225" xr2:uid="{4F61ECC4-2625-4953-B8E7-8799D45FCCB2}"/>
+    <workbookView xWindow="14790" yWindow="240" windowWidth="13065" windowHeight="15225" xr2:uid="{4F61ECC4-2625-4953-B8E7-8799D45FCCB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="30">
   <si>
     <t>q1</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Estado inicial</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -286,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,39 +340,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -645,25 +632,53 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -685,21 +700,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F843E8A1-5F44-4921-9EED-BBC930A87586}" name="Tabla1" displayName="Tabla1" ref="A1:L14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F843E8A1-5F44-4921-9EED-BBC930A87586}" name="Tabla1" displayName="Tabla1" ref="A1:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L14" xr:uid="{C5638893-C48C-474D-9740-AD80FFC11B1F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{841CC733-9E89-40C7-84C1-719F561F3022}" name="                        Alfabeto        Estados" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{63889DC6-D30B-4C5C-8C91-6FD5FDFCE6CB}" name="letra" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CB804AEF-0AEC-415A-99AD-7CDF2430671F}" name="_" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{31C87D40-2691-4D74-99B0-5971F3D6B060}" name="digito" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{7B5BB975-0420-4B1C-9CFF-5D8EE47F27FC}" name=" + , *, =, ^" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{879A0868-F887-4793-A019-62DFAF39BC00}" name="(" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{B3A13C6E-2565-4BAE-B449-B72328E97A5F}" name=")" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{18CD39D5-5A4E-4BC3-966E-4956FAA9EEFE}" name="." dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{75CB8075-A108-41DE-8FF8-01BA659EACF7}" name="e,  E" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{544119B3-94AF-4FE1-8AF4-18E9D9AE1AC2}" name=" -" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{A75756C7-D67D-4E4B-BD32-1B848AA8165D}" name="/" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{A1033A9D-2B53-456F-B96E-670914C1F5CA}" name="any character" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{841CC733-9E89-40C7-84C1-719F561F3022}" name="                        Alfabeto        Estados" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{63889DC6-D30B-4C5C-8C91-6FD5FDFCE6CB}" name="letra" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CB804AEF-0AEC-415A-99AD-7CDF2430671F}" name="_" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{31C87D40-2691-4D74-99B0-5971F3D6B060}" name="digito" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7B5BB975-0420-4B1C-9CFF-5D8EE47F27FC}" name=" + , *, =, ^" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{879A0868-F887-4793-A019-62DFAF39BC00}" name="(" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B3A13C6E-2565-4BAE-B449-B72328E97A5F}" name=")" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{18CD39D5-5A4E-4BC3-966E-4956FAA9EEFE}" name="." dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{75CB8075-A108-41DE-8FF8-01BA659EACF7}" name="e,  E" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{544119B3-94AF-4FE1-8AF4-18E9D9AE1AC2}" name=" -" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{A75756C7-D67D-4E4B-BD32-1B848AA8165D}" name="/" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A1033A9D-2B53-456F-B96E-670914C1F5CA}" name="any character" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1005,7 +1020,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1075,7 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1605,7 +1620,10 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>

--- a/Actividad3.2/Tabla_alfabeto_automata.xlsx
+++ b/Actividad3.2/Tabla_alfabeto_automata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Trabajos\Semestre 4 carrera\Implementacion MC\Implementacion_MC\Actividad3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E7B40-17BE-4B65-AAD3-6800D810DEB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5FD1D-52A8-4F42-A781-26AE29C8BA16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14790" yWindow="240" windowWidth="13065" windowHeight="15225" xr2:uid="{4F61ECC4-2625-4953-B8E7-8799D45FCCB2}"/>
   </bookViews>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216CC5F7-277E-4096-9540-C8627F683D6F}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,8 +1171,8 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>1</v>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -1258,8 +1258,8 @@
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
@@ -1303,8 +1303,8 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>4</v>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>20</v>
